--- a/SEModCreateTool/生成.xlsx
+++ b/SEModCreateTool/生成.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/91295741cb17745d/Personal/@Server/Tools/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\itom\Google ドライブ\source\repos\Space Engineers\Space-Engineers-Easy_Survival\SEModCreateTool\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="89" documentId="13_ncr:1_{B35D9E38-E807-4E31-B2E1-75CC50A373F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{22500FC2-FEA9-49A0-9098-FB28A5F58DC6}"/>
   <bookViews>
-    <workbookView xWindow="9105" yWindow="1620" windowWidth="16935" windowHeight="12630" xr2:uid="{341E6DDF-A530-4C22-AD5A-C351F9E845C6}"/>
+    <workbookView xWindow="9105" yWindow="1620" windowWidth="16935" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Bak" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -97,7 +97,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="#,##0.00000_ "/>
     <numFmt numFmtId="177" formatCode="#,##0.0000_ "/>
@@ -129,7 +129,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -139,6 +139,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -157,7 +163,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -197,6 +203,9 @@
     <xf numFmtId="176" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -212,6 +221,509 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="51989" t="30977" r="18182" b="46296"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="276225" y="238125"/>
+          <a:ext cx="3000376" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1647825" y="1038225"/>
+          <a:ext cx="1590675" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>x 1000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" i="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:innerShdw blurRad="63500" dist="50800">
+                <a:prstClr val="black">
+                  <a:alpha val="50000"/>
+                </a:prstClr>
+              </a:innerShdw>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="図 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="51988" t="30977" r="18277" b="38383"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="1838325"/>
+          <a:ext cx="2990850" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="テキスト ボックス 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="2990850"/>
+          <a:ext cx="1590675" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>x 10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" i="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:innerShdw blurRad="63500" dist="50800">
+                <a:prstClr val="black">
+                  <a:alpha val="50000"/>
+                </a:prstClr>
+              </a:innerShdw>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2990850" cy="1733550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="図 7"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="51988" t="30977" r="18277" b="38383"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="1838325"/>
+          <a:ext cx="2990850" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="5133975"/>
+          <a:ext cx="1590675" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>x 100</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" i="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:innerShdw blurRad="63500" dist="50800">
+                <a:prstClr val="black">
+                  <a:alpha val="50000"/>
+                </a:prstClr>
+              </a:innerShdw>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="2990850" cy="1733550"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="図 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="51988" t="30977" r="18277" b="38383"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="323850" y="1838325"/>
+          <a:ext cx="2990850" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1704975" y="7515225"/>
+          <a:ext cx="1590675" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>x 1000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" i="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:innerShdw blurRad="63500" dist="50800">
+                <a:prstClr val="black">
+                  <a:alpha val="50000"/>
+                </a:prstClr>
+              </a:innerShdw>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -510,7 +1022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7968012E-66F4-4BCE-84FB-786CFE2452FD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1135,7 +1647,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D51D819-99B1-4A4F-8AAD-3EF5C738E567}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1709,4 +2221,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:N35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="13" width="3.375" style="13"/>
+    <col min="14" max="14" width="2" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="3.375" style="13"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SEModCreateTool/生成.xlsx
+++ b/SEModCreateTool/生成.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9105" yWindow="1620" windowWidth="16935" windowHeight="12630"/>
+    <workbookView xWindow="9105" yWindow="1620" windowWidth="16935" windowHeight="12630" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -332,7 +332,7 @@
               </a:effectLst>
               <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
             </a:rPr>
-            <a:t>x 1000</a:t>
+            <a:t>x 10</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" i="1">
             <a:solidFill>
@@ -356,13 +356,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>209550</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -399,13 +399,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:row>26</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -483,7 +483,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>30</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2990850" cy="1733550"/>
@@ -521,13 +521,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>21</xdr:row>
+      <xdr:row>35</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>37</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -605,7 +605,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="2990850" cy="1733550"/>
@@ -643,13 +643,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>31</xdr:row>
+      <xdr:row>45</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
       <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>47</xdr:row>
       <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -661,6 +661,250 @@
         <a:xfrm>
           <a:off x="1704975" y="7515225"/>
           <a:ext cx="1590675" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>x 1000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" i="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:innerShdw blurRad="63500" dist="50800">
+                <a:prstClr val="black">
+                  <a:alpha val="50000"/>
+                </a:prstClr>
+              </a:innerShdw>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3000376" cy="1285875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="図 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="51989" t="30977" r="18182" b="46296"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="238125"/>
+          <a:ext cx="3000376" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="1038225"/>
+          <a:ext cx="1485900" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>x 100</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" i="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:innerShdw blurRad="63500" dist="50800">
+                <a:prstClr val="black">
+                  <a:alpha val="50000"/>
+                </a:prstClr>
+              </a:innerShdw>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3000376" cy="1285875"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="図 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="51989" t="30977" r="18182" b="46296"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="1905000"/>
+          <a:ext cx="3000376" cy="1285875"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="テキスト ボックス 14"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1543050" y="2705100"/>
+          <a:ext cx="1485900" cy="552450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1025,7 +1269,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2227,8 +2471,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:N35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/SEModCreateTool/生成.xlsx
+++ b/SEModCreateTool/生成.xlsx
@@ -9,12 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9105" yWindow="1620" windowWidth="16935" windowHeight="12630" activeTab="2"/>
+    <workbookView xWindow="9105" yWindow="1620" windowWidth="16935" windowHeight="12630"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Bak" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet2 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -970,6 +971,392 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>243150</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>199216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="図 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="52367" t="27273" r="18655" b="57407"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="238125"/>
+          <a:ext cx="3072075" cy="913591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>243150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>199216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="52367" t="27273" r="18655" b="57407"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="1905000"/>
+          <a:ext cx="3072075" cy="913591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>243150</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>199216</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="図 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="52367" t="27273" r="18655" b="57407"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257175" y="3571875"/>
+          <a:ext cx="3072075" cy="913591"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="619125"/>
+          <a:ext cx="1485900" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>x 10</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" i="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:innerShdw blurRad="63500" dist="50800">
+                <a:prstClr val="black">
+                  <a:alpha val="50000"/>
+                </a:prstClr>
+              </a:innerShdw>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="テキスト ボックス 10"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="2286000"/>
+          <a:ext cx="1485900" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>x 100</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" i="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:innerShdw blurRad="63500" dist="50800">
+                <a:prstClr val="black">
+                  <a:alpha val="50000"/>
+                </a:prstClr>
+              </a:innerShdw>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="テキスト ボックス 12"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1762125" y="3952875"/>
+          <a:ext cx="1485900" cy="552450"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="2400" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>x 1000</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" i="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:innerShdw blurRad="63500" dist="50800">
+                <a:prstClr val="black">
+                  <a:alpha val="50000"/>
+                </a:prstClr>
+              </a:innerShdw>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -1269,7 +1656,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -2471,7 +2858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
@@ -2486,4 +2873,25 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:N19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="13" width="3.375" style="13"/>
+    <col min="14" max="14" width="2" style="13" customWidth="1"/>
+    <col min="15" max="16384" width="3.375" style="13"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/SEModCreateTool/生成.xlsx
+++ b/SEModCreateTool/生成.xlsx
@@ -9,15 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9105" yWindow="1620" windowWidth="16935" windowHeight="12630"/>
+    <workbookView xWindow="9105" yWindow="1620" windowWidth="16935" windowHeight="12630" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Bak" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet2 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="数値" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="image1" sheetId="3" r:id="rId3"/>
+    <sheet name="image2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
   <si>
     <t>ORG</t>
     <phoneticPr fontId="1"/>
@@ -50,49 +50,117 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>x10</t>
+    <t>Stone</t>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>Nickel</t>
+  </si>
+  <si>
+    <t>Silicon</t>
+  </si>
+  <si>
+    <t>Ice</t>
+  </si>
+  <si>
+    <t>Cobalt</t>
+  </si>
+  <si>
+    <t>Magnesium</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>Platinum</t>
+  </si>
+  <si>
+    <t>Uranium</t>
+  </si>
+  <si>
+    <t>MaxCrouchWalkSpeed</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>x100</t>
+    <t>MaxCrouchBackwalkSpeed</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>x1000</t>
+    <t>MaxCrouchStrafingSpeed</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Stone</t>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>Nickel</t>
-  </si>
-  <si>
-    <t>Silicon</t>
-  </si>
-  <si>
-    <t>Ice</t>
-  </si>
-  <si>
-    <t>Cobalt</t>
-  </si>
-  <si>
-    <t>Magnesium</t>
-  </si>
-  <si>
-    <t>Silver</t>
-  </si>
-  <si>
-    <t>Gold</t>
-  </si>
-  <si>
-    <t>Platinum</t>
-  </si>
-  <si>
-    <t>Uranium</t>
+    <t>OxygenConsumption</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Hydrogen suit [MaxCapacity]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Oxygen suit [MaxCapacity]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SuitConsumptionInTemperatureExtreme</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MaxPowerConsumption</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ConsumptionFactorPerG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>InventoryVolume</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>vanilla</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(vanilla crouch speed is awful, now it's the same as walk speed [3])</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(bit less oxygen consumption)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(less Medical Room visits, when building in space)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(reduced general power required)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(less hydrogen consumption on planets)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>40.000L normal, 400.000L in X10 mode</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hydrogen bottle = 1000L</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>oxygen bottle = 100L</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -130,7 +198,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -149,6 +217,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -164,7 +238,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -205,6 +279,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1337,6 +1414,180 @@
             <a:t>x 1000</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2400" i="1">
+            <a:solidFill>
+              <a:srgbClr val="FFFF00"/>
+            </a:solidFill>
+            <a:effectLst>
+              <a:innerShdw blurRad="63500" dist="50800">
+                <a:prstClr val="black">
+                  <a:alpha val="50000"/>
+                </a:prstClr>
+              </a:innerShdw>
+            </a:effectLst>
+            <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>31989</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>7764</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId3">
+                  <a14:imgEffect>
+                    <a14:sharpenSoften amount="3000"/>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="14300" t="18519" r="53598" b="55387"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4343400" y="180974"/>
+          <a:ext cx="5870814" cy="2684290"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>39</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="9" name="テキスト ボックス 8"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5695950" y="133349"/>
+          <a:ext cx="4248150" cy="1143001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Inventory Size x 100  </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Hydrogen MaxCapacity x 4</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="r"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800" i="1">
+              <a:solidFill>
+                <a:srgbClr val="FFFF00"/>
+              </a:solidFill>
+              <a:effectLst>
+                <a:innerShdw blurRad="63500" dist="50800">
+                  <a:prstClr val="black">
+                    <a:alpha val="50000"/>
+                  </a:prstClr>
+                </a:innerShdw>
+              </a:effectLst>
+              <a:latin typeface="Arial Black" panose="020B0A04020102020204" pitchFamily="34" charset="0"/>
+            </a:rPr>
+            <a:t>Oxygen MaxCapacity x 8</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800" i="1">
             <a:solidFill>
               <a:srgbClr val="FFFF00"/>
             </a:solidFill>
@@ -1656,7 +1907,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
@@ -1712,7 +1963,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C3" s="2">
         <v>1.4</v>
@@ -1748,7 +1999,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B4" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C4" s="2">
         <v>3</v>
@@ -1784,7 +2035,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B5" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C5" s="2">
         <v>0.24</v>
@@ -1820,7 +2071,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C6" s="2">
         <v>0.4</v>
@@ -1876,7 +2127,7 @@
         <v>2</v>
       </c>
       <c r="B9" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="C9" s="2">
         <v>14</v>
@@ -1912,7 +2163,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B10" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C10" s="2">
         <v>30</v>
@@ -1948,7 +2199,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B11" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11" s="2">
         <v>2.4</v>
@@ -1984,7 +2235,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B12" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C12" s="2">
         <v>4</v>
@@ -2020,7 +2271,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C14" s="2">
         <v>10</v>
@@ -2056,7 +2307,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C15" s="2">
         <v>0.8</v>
@@ -2092,7 +2343,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2">
         <v>0.5</v>
@@ -2128,7 +2379,7 @@
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C17" s="2">
         <v>5</v>
@@ -2164,7 +2415,7 @@
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2">
         <v>0.3</v>
@@ -2200,7 +2451,7 @@
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="C19" s="2">
         <v>0.1</v>
@@ -2236,7 +2487,7 @@
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C20" s="2">
         <v>0.5</v>
@@ -2279,578 +2530,171 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J20"/>
+  <dimension ref="B1:J11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="12.375" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9" style="1"/>
-    <col min="5" max="5" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9" style="1"/>
-    <col min="7" max="7" width="10.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" style="3"/>
-    <col min="9" max="9" width="12.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9" style="3"/>
+    <col min="2" max="2" width="40.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="C1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="E1" s="1" t="s">
+    <row r="1" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5">
+        <v>6.3E-2</v>
+      </c>
+      <c r="D5">
+        <v>0.05</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>125</v>
+      </c>
+      <c r="D6" s="14">
+        <v>500</v>
+      </c>
+      <c r="E6" t="s">
+        <v>32</v>
+      </c>
+      <c r="J6">
+        <f>D6/C6</f>
         <v>4</v>
       </c>
-      <c r="I1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="4">
-        <v>100</v>
-      </c>
-      <c r="E2" s="5">
-        <v>10</v>
-      </c>
-      <c r="G2" s="5">
-        <v>10</v>
-      </c>
-      <c r="I2" s="6">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
-        <v>1.4</v>
-      </c>
-      <c r="D3" s="1">
-        <f>C3/$C$2</f>
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="F3" s="1">
-        <f>E3/$E$2</f>
-        <v>1.4000000000000002E-2</v>
-      </c>
-      <c r="G3" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="H3" s="3">
-        <f>G3/$G$2</f>
-        <v>0.13999999999999999</v>
-      </c>
-      <c r="I3" s="3">
-        <v>14</v>
-      </c>
-      <c r="J3" s="3">
-        <f>I3/$I$2</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2">
-        <v>3</v>
-      </c>
-      <c r="D4" s="1">
-        <f>C4/$C$2</f>
-        <v>0.03</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3</v>
-      </c>
-      <c r="F4" s="1">
-        <f>E4/$E$2</f>
-        <v>0.3</v>
-      </c>
-      <c r="G4" s="1">
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7" s="14">
+        <v>500</v>
+      </c>
+      <c r="E7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <f>D7/C7</f>
+        <v>8.3333333333333339</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8">
+        <v>2.5</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B9" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9">
+        <v>1E-4</v>
+      </c>
+      <c r="D9" s="14">
+        <v>1.0000000000000001E-5</v>
+      </c>
+      <c r="E9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="C10">
+        <v>250</v>
+      </c>
+      <c r="D10">
+        <v>50</v>
+      </c>
+      <c r="E10" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="3">
-        <f>G4/$G$2</f>
-        <v>3</v>
-      </c>
-      <c r="I4" s="3">
-        <v>300</v>
-      </c>
-      <c r="J4" s="3">
-        <f>I4/$I$2</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.24</v>
-      </c>
-      <c r="D5" s="1">
-        <f>C5/$C$2</f>
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0.24</v>
-      </c>
-      <c r="F5" s="1">
-        <f>E5/$E$2</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="G5" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="H5" s="3">
-        <f>G5/$G$2</f>
-        <v>0.24</v>
-      </c>
-      <c r="I5" s="3">
-        <v>24</v>
-      </c>
-      <c r="J5" s="3">
-        <f>I5/$I$2</f>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2">
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11">
         <v>0.4</v>
       </c>
-      <c r="D6" s="1">
-        <f>C6/$C$2</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0.4</v>
-      </c>
-      <c r="F6" s="1">
-        <f>E6/$E$2</f>
-        <v>0.04</v>
-      </c>
-      <c r="G6" s="1">
-        <v>4</v>
-      </c>
-      <c r="H6" s="3">
-        <f>G6/$G$2</f>
-        <v>0.4</v>
-      </c>
-      <c r="I6" s="3">
+      <c r="D11" s="14">
         <v>40</v>
       </c>
-      <c r="J6" s="3">
-        <f>I6/$I$2</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A8" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="5">
-        <v>100</v>
-      </c>
-      <c r="G8" s="5">
-        <v>100</v>
-      </c>
-      <c r="I8" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="2">
-        <v>14</v>
-      </c>
-      <c r="D9" s="1">
-        <f>C9/$C$8</f>
-        <v>1.4E-2</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.4</v>
-      </c>
-      <c r="F9" s="1">
-        <f>E9/$E$8</f>
-        <v>1.3999999999999999E-2</v>
-      </c>
-      <c r="G9" s="1">
-        <v>14</v>
-      </c>
-      <c r="H9" s="3">
-        <f>G9/$G$8</f>
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I9" s="3">
-        <v>140</v>
-      </c>
-      <c r="J9" s="3">
-        <f>I9/$I$8</f>
-        <v>1.4</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="2">
-        <v>30</v>
-      </c>
-      <c r="D10" s="1">
-        <f>C10/$C$8</f>
-        <v>0.03</v>
-      </c>
-      <c r="E10" s="1">
-        <v>30</v>
-      </c>
-      <c r="F10" s="1">
-        <f>E10/$E$8</f>
-        <v>0.3</v>
-      </c>
-      <c r="G10" s="1">
-        <v>300</v>
-      </c>
-      <c r="H10" s="3">
-        <f>G10/$G$8</f>
-        <v>3</v>
-      </c>
-      <c r="I10" s="3">
-        <v>3000</v>
-      </c>
-      <c r="J10" s="3">
-        <f>I10/$I$8</f>
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="2">
-        <v>2.4</v>
-      </c>
-      <c r="D11" s="1">
-        <f>C11/$C$8</f>
-        <v>2.3999999999999998E-3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>2.4</v>
-      </c>
-      <c r="F11" s="1">
-        <f>E11/$E$8</f>
-        <v>2.4E-2</v>
-      </c>
-      <c r="G11" s="1">
-        <v>24</v>
-      </c>
-      <c r="H11" s="3">
-        <f>G11/$G$8</f>
-        <v>0.24</v>
-      </c>
-      <c r="I11" s="3">
-        <v>240</v>
-      </c>
-      <c r="J11" s="3">
-        <f>I11/$I$8</f>
-        <v>2.4</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="2">
-        <v>4</v>
-      </c>
-      <c r="D12" s="1">
-        <f>C12/$C$8</f>
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="E12" s="1">
-        <v>4</v>
-      </c>
-      <c r="F12" s="1">
-        <f>E12/$E$8</f>
-        <v>0.04</v>
-      </c>
-      <c r="G12" s="1">
-        <v>40</v>
-      </c>
-      <c r="H12" s="3">
-        <f>G12/$G$8</f>
-        <v>0.4</v>
-      </c>
-      <c r="I12" s="3">
-        <v>400</v>
-      </c>
-      <c r="J12" s="3">
-        <f>I12/$I$8</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C14" s="2">
-        <v>0</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" ref="D14:D20" si="0">C14/$C$8</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="1">
-        <v>10</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" ref="F14:F20" si="1">E14/$E$8</f>
-        <v>0.1</v>
-      </c>
-      <c r="G14" s="1">
-        <v>100</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" ref="H14:H20" si="2">G14/$G$8</f>
-        <v>1</v>
-      </c>
-      <c r="I14" s="3">
-        <v>1000</v>
-      </c>
-      <c r="J14" s="3">
-        <f t="shared" ref="J14:J20" si="3">I14/$I$8</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B15" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C15" s="2">
-        <v>0</v>
-      </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E15" s="1">
-        <v>0.8</v>
-      </c>
-      <c r="F15" s="1">
-        <f t="shared" si="1"/>
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="G15" s="1">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3">
-        <f t="shared" si="2"/>
-        <v>0.08</v>
-      </c>
-      <c r="I15" s="3">
-        <v>80</v>
-      </c>
-      <c r="J15" s="3">
-        <f t="shared" si="3"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C16" s="2">
-        <v>0</v>
-      </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E16" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G16" s="1">
-        <v>5</v>
-      </c>
-      <c r="H16" s="3">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
-      </c>
-      <c r="I16" s="3">
-        <v>50</v>
-      </c>
-      <c r="J16" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="2">
-        <v>0</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E17" s="1">
-        <v>5</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
-      </c>
-      <c r="G17" s="1">
-        <v>50</v>
-      </c>
-      <c r="H17" s="3">
-        <f t="shared" si="2"/>
-        <v>0.5</v>
-      </c>
-      <c r="I17" s="3">
-        <v>500</v>
-      </c>
-      <c r="J17" s="3">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C18" s="2">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E18" s="1">
-        <v>0.3</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="1"/>
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3</v>
-      </c>
-      <c r="H18" s="3">
-        <f t="shared" si="2"/>
-        <v>0.03</v>
-      </c>
-      <c r="I18" s="3">
-        <v>30</v>
-      </c>
-      <c r="J18" s="3">
-        <f t="shared" si="3"/>
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="2">
-        <v>0</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E19" s="1">
-        <v>0.1</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="1"/>
-        <v>1E-3</v>
-      </c>
-      <c r="G19" s="1">
-        <v>1</v>
-      </c>
-      <c r="H19" s="3">
-        <f t="shared" si="2"/>
-        <v>0.01</v>
-      </c>
-      <c r="I19" s="3">
-        <v>10</v>
-      </c>
-      <c r="J19" s="3">
-        <f t="shared" si="3"/>
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="2">
-        <v>0</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E20" s="1">
-        <v>0.5</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G20" s="1">
-        <v>5</v>
-      </c>
-      <c r="H20" s="3">
-        <f t="shared" si="2"/>
-        <v>0.05</v>
-      </c>
-      <c r="I20" s="3">
-        <v>50</v>
-      </c>
-      <c r="J20" s="3">
-        <f t="shared" si="3"/>
-        <v>0.5</v>
+      <c r="E11" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2880,7 +2724,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:N19"/>
+      <selection activeCell="Q1" sqref="Q1:AO13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
